--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466403.89928395</v>
+        <v>2464151.819572743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755695</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>91.73942650174901</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>121.9600124226103</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.2317318494241</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>125.0816591241462</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>129.5398680316079</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>3.182585533882316</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>114.2656173771021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395868</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
-        <v>2.607010073152018</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>160.0173565357451</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>135.5795121770483</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.202559688707</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.32649042089713</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>132.6315337216692</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>10.63412424768254</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.63412424768254</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135853</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
         <v>828.1105664881544</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2332.07795407525</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.938622099438</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738584</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>629.570363233848</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845646</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040981</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
         <v>1572.164517693149</v>
@@ -4550,10 +4550,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4607,10 +4607,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,16 +4650,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.760653318132</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,7 +5045,7 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>634.334587849125</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2218.283686362213</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1998.682221385154</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851635</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572566</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449209</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832659</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855601</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199798</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993911</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956951</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058933</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154032</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5729,61 +5729,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961525</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.154262550759</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1920.063992790046</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565524</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,7 +6479,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098242</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819173</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695815</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871884</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>369.499740389278</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640064</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684978</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420924</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>186.644906044182</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797747</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111701</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368213</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>481.4479471244855</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420924</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>186.644906044182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
         <v>175.9033664000582</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
         <v>1731.250242493492</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.324847199572525e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
-        <v>143.8269525734171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.00892946589954</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>10.85445046952091</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.320438647884</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.5054897610402</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.89260457059964</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>154.8900140445863</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>154.8900140445863</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850953</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>800386.7019280269</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.7019280269</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597545</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.752076855</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685503</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893775.1014923727</v>
+        <v>-893775.1014923723</v>
       </c>
       <c r="C6" t="n">
-        <v>434969.6442352202</v>
+        <v>434969.6442352198</v>
       </c>
       <c r="D6" t="n">
-        <v>434969.64423522</v>
+        <v>434969.6442352198</v>
       </c>
       <c r="E6" t="n">
-        <v>184786.871051638</v>
+        <v>184752.1331262017</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589925</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="G6" t="n">
-        <v>510199.3328589926</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="H6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="I6" t="n">
-        <v>510199.3328589924</v>
+        <v>510164.594933557</v>
       </c>
       <c r="J6" t="n">
-        <v>292668.1304617153</v>
+        <v>292633.3925362795</v>
       </c>
       <c r="K6" t="n">
-        <v>510199.3328589923</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="L6" t="n">
-        <v>510199.3328589928</v>
+        <v>510164.5949335571</v>
       </c>
       <c r="M6" t="n">
-        <v>425144.3049234808</v>
+        <v>425109.5669980451</v>
       </c>
       <c r="N6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335566</v>
       </c>
       <c r="O6" t="n">
-        <v>510199.3328589929</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="P6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.594933557</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
@@ -26796,22 +26796,22 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.5496012734506</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.99167417672</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>45.28680867601751</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>27.98010635618874</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>240.1912326468614</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>256.6980706244457</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.12388134767377</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>366.5485151445867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>137.8720259467259</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700418</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.19380183899262e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.353712668104585e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.05658153010742e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-2.353712668104585e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>577.7447198439388</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P24" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>489.289183278307</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500296</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663259</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>186.6878763515704</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>724.9681211658383</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>510.682889626564</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394704</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010411</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P24" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>55.96455263125056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949737</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37154,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280113</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>44.09163190712597</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>582.8340872438199</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5488557045456</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
